--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti4\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>TC</t>
   </si>
@@ -32,11 +32,24 @@
   <si>
     <t>authorized already</t>
   </si>
+  <si>
+    <t>118448</t>
+  </si>
+  <si>
+    <t>17704491</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>17704492</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -357,7 +370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,6 +1458,28 @@
         <v>1050</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti4\IdeaProjects\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>TC</t>
   </si>
@@ -43,13 +44,66 @@
   </si>
   <si>
     <t>17704492</t>
+  </si>
+  <si>
+    <t>17704511</t>
+  </si>
+  <si>
+    <t>17704524</t>
+  </si>
+  <si>
+    <t>118450</t>
+  </si>
+  <si>
+    <t>17704525</t>
+  </si>
+  <si>
+    <t>118451</t>
+  </si>
+  <si>
+    <t>17704526</t>
+  </si>
+  <si>
+    <t>17704530</t>
+  </si>
+  <si>
+    <t>17704531</t>
+  </si>
+  <si>
+    <t>17704532</t>
+  </si>
+  <si>
+    <t>17704540</t>
+  </si>
+  <si>
+    <t>17704541</t>
+  </si>
+  <si>
+    <t>17704543</t>
+  </si>
+  <si>
+    <t>17704590</t>
+  </si>
+  <si>
+    <t>17704591</t>
+  </si>
+  <si>
+    <t>17704592</t>
+  </si>
+  <si>
+    <t>118452</t>
+  </si>
+  <si>
+    <t>17704593</t>
+  </si>
+  <si>
+    <t>17704594</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,15 +416,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1593,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -1477,6 +1612,116 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>TC</t>
   </si>
@@ -82,28 +82,77 @@
     <t>17704543</t>
   </si>
   <si>
-    <t>17704590</t>
-  </si>
-  <si>
-    <t>17704591</t>
-  </si>
-  <si>
-    <t>17704592</t>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>17704748</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>17704749</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>118498</t>
+  </si>
+  <si>
+    <t>17704750</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
   <si>
     <t>118452</t>
   </si>
   <si>
-    <t>17704593</t>
-  </si>
-  <si>
-    <t>17704594</t>
+    <t>17704751</t>
+  </si>
+  <si>
+    <t>17704752</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>17704753</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>17704754</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>17704755</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>17704756</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>17704757</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,58 +484,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -505,7 +609,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -85,7 +85,7 @@
     <t>118500</t>
   </si>
   <si>
-    <t>17704748</t>
+    <t>17704808</t>
   </si>
   <si>
     <t>6004</t>
@@ -94,7 +94,7 @@
     <t>118518</t>
   </si>
   <si>
-    <t>17704749</t>
+    <t>17704809</t>
   </si>
   <si>
     <t>6020</t>
@@ -103,7 +103,7 @@
     <t>118498</t>
   </si>
   <si>
-    <t>17704750</t>
+    <t>17704810</t>
   </si>
   <si>
     <t>1001</t>
@@ -112,40 +112,40 @@
     <t>118452</t>
   </si>
   <si>
-    <t>17704751</t>
-  </si>
-  <si>
-    <t>17704752</t>
+    <t>17704811</t>
+  </si>
+  <si>
+    <t>17704812</t>
   </si>
   <si>
     <t>6012</t>
   </si>
   <si>
-    <t>17704753</t>
+    <t>17704813</t>
   </si>
   <si>
     <t>1047</t>
   </si>
   <si>
-    <t>17704754</t>
+    <t>17704815</t>
   </si>
   <si>
     <t>1035</t>
   </si>
   <si>
-    <t>17704755</t>
+    <t>17704816</t>
   </si>
   <si>
     <t>1150</t>
   </si>
   <si>
-    <t>17704756</t>
+    <t>17704817</t>
   </si>
   <si>
     <t>1068</t>
   </si>
   <si>
-    <t>17704757</t>
+    <t>17704818</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>TC</t>
   </si>
@@ -82,70 +82,13 @@
     <t>17704543</t>
   </si>
   <si>
-    <t>118500</t>
-  </si>
-  <si>
-    <t>17704808</t>
-  </si>
-  <si>
-    <t>6004</t>
-  </si>
-  <si>
-    <t>118518</t>
-  </si>
-  <si>
-    <t>17704809</t>
-  </si>
-  <si>
-    <t>6020</t>
-  </si>
-  <si>
-    <t>118498</t>
-  </si>
-  <si>
-    <t>17704810</t>
+    <t>118463</t>
+  </si>
+  <si>
+    <t>17705020</t>
   </si>
   <si>
     <t>1001</t>
-  </si>
-  <si>
-    <t>118452</t>
-  </si>
-  <si>
-    <t>17704811</t>
-  </si>
-  <si>
-    <t>17704812</t>
-  </si>
-  <si>
-    <t>6012</t>
-  </si>
-  <si>
-    <t>17704813</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>17704815</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>17704816</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>17704817</t>
-  </si>
-  <si>
-    <t>1068</t>
-  </si>
-  <si>
-    <t>17704818</t>
   </si>
 </sst>
 </file>
@@ -465,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,105 +436,6 @@
       </c>
       <c r="C2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -13,14 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>TC</t>
   </si>
@@ -85,10 +87,37 @@
     <t>118463</t>
   </si>
   <si>
-    <t>17705020</t>
-  </si>
-  <si>
-    <t>1001</t>
+    <t>17705259</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>17705260</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>17705261</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>118464</t>
+  </si>
+  <si>
+    <t>17705262</t>
+  </si>
+  <si>
+    <t>118465</t>
+  </si>
+  <si>
+    <t>17705263</t>
+  </si>
+  <si>
+    <t>1011</t>
   </si>
 </sst>
 </file>
@@ -408,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,12 +467,69 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
@@ -1676,4 +1762,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17705229</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17705230</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17705231</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>118464</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17705232</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>118465</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17705233</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>118466</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17705234</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>118468</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17705235</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>118469</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17705242</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>118469</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17705237</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>118471</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17705238</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -87,19 +87,19 @@
     <t>118463</t>
   </si>
   <si>
-    <t>17705259</t>
+    <t>17707515</t>
   </si>
   <si>
     <t>1010</t>
   </si>
   <si>
-    <t>17705260</t>
+    <t>17707516</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>17705261</t>
+    <t>17707517</t>
   </si>
   <si>
     <t>1007</t>
@@ -108,13 +108,13 @@
     <t>118464</t>
   </si>
   <si>
-    <t>17705262</t>
+    <t>17707519</t>
   </si>
   <si>
     <t>118465</t>
   </si>
   <si>
-    <t>17705263</t>
+    <t>17707520</t>
   </si>
   <si>
     <t>1011</t>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>TC</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>1011</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>6004</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C11"/>
@@ -509,6 +515,15 @@
       </c>
       <c r="C6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>TC</t>
   </si>
@@ -82,49 +82,12 @@
   </si>
   <si>
     <t>17704543</t>
-  </si>
-  <si>
-    <t>118463</t>
-  </si>
-  <si>
-    <t>17707515</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>17707516</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>17707517</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>118464</t>
-  </si>
-  <si>
-    <t>17707519</t>
-  </si>
-  <si>
-    <t>118465</t>
-  </si>
-  <si>
-    <t>17707520</t>
-  </si>
-  <si>
-    <t>1011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C11"/>
@@ -454,61 +417,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +447,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="remaining" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Ban gai Customers" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="126">
   <si>
     <t>TC</t>
   </si>
@@ -82,6 +83,324 @@
   </si>
   <si>
     <t>17704543</t>
+  </si>
+  <si>
+    <t>118500</t>
+  </si>
+  <si>
+    <t>17866584</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>17866585</t>
+  </si>
+  <si>
+    <t>118518</t>
+  </si>
+  <si>
+    <t>17866586</t>
+  </si>
+  <si>
+    <t>118498</t>
+  </si>
+  <si>
+    <t>17866587</t>
+  </si>
+  <si>
+    <t>6063</t>
+  </si>
+  <si>
+    <t>118452</t>
+  </si>
+  <si>
+    <t>17866588</t>
+  </si>
+  <si>
+    <t>17866589</t>
+  </si>
+  <si>
+    <t>17866590</t>
+  </si>
+  <si>
+    <t>17866591</t>
+  </si>
+  <si>
+    <t>17866592</t>
+  </si>
+  <si>
+    <t>17866593</t>
+  </si>
+  <si>
+    <t>17866594</t>
+  </si>
+  <si>
+    <t>17866595</t>
+  </si>
+  <si>
+    <t>17866596</t>
+  </si>
+  <si>
+    <t>17866597</t>
+  </si>
+  <si>
+    <t>17866598</t>
+  </si>
+  <si>
+    <t>17866599</t>
+  </si>
+  <si>
+    <t>17866600</t>
+  </si>
+  <si>
+    <t>17866601</t>
+  </si>
+  <si>
+    <t>17866602</t>
+  </si>
+  <si>
+    <t>17866603</t>
+  </si>
+  <si>
+    <t>17866604</t>
+  </si>
+  <si>
+    <t>17866605</t>
+  </si>
+  <si>
+    <t>17866606</t>
+  </si>
+  <si>
+    <t>17866607</t>
+  </si>
+  <si>
+    <t>17866608</t>
+  </si>
+  <si>
+    <t>17866609</t>
+  </si>
+  <si>
+    <t>17866610</t>
+  </si>
+  <si>
+    <t>17866611</t>
+  </si>
+  <si>
+    <t>17866612</t>
+  </si>
+  <si>
+    <t>17866613</t>
+  </si>
+  <si>
+    <t>17866614</t>
+  </si>
+  <si>
+    <t>17866615</t>
+  </si>
+  <si>
+    <t>17866616</t>
+  </si>
+  <si>
+    <t>17866617</t>
+  </si>
+  <si>
+    <t>17866618</t>
+  </si>
+  <si>
+    <t>17866619</t>
+  </si>
+  <si>
+    <t>17866620</t>
+  </si>
+  <si>
+    <t>17866621</t>
+  </si>
+  <si>
+    <t>17866622</t>
+  </si>
+  <si>
+    <t>17866623</t>
+  </si>
+  <si>
+    <t>17866624</t>
+  </si>
+  <si>
+    <t>17866625</t>
+  </si>
+  <si>
+    <t>17866626</t>
+  </si>
+  <si>
+    <t>17866627</t>
+  </si>
+  <si>
+    <t>17866628</t>
+  </si>
+  <si>
+    <t>17866629</t>
+  </si>
+  <si>
+    <t>17866630</t>
+  </si>
+  <si>
+    <t>17866631</t>
+  </si>
+  <si>
+    <t>17866632</t>
+  </si>
+  <si>
+    <t>17866633</t>
+  </si>
+  <si>
+    <t>17866634</t>
+  </si>
+  <si>
+    <t>17866635</t>
+  </si>
+  <si>
+    <t>17866636</t>
+  </si>
+  <si>
+    <t>17866637</t>
+  </si>
+  <si>
+    <t>17866638</t>
+  </si>
+  <si>
+    <t>17866639</t>
+  </si>
+  <si>
+    <t>17866640</t>
+  </si>
+  <si>
+    <t>17866641</t>
+  </si>
+  <si>
+    <t>17866642</t>
+  </si>
+  <si>
+    <t>17866643</t>
+  </si>
+  <si>
+    <t>17866644</t>
+  </si>
+  <si>
+    <t>17866645</t>
+  </si>
+  <si>
+    <t>17866646</t>
+  </si>
+  <si>
+    <t>17866647</t>
+  </si>
+  <si>
+    <t>17866648</t>
+  </si>
+  <si>
+    <t>17866649</t>
+  </si>
+  <si>
+    <t>17866650</t>
+  </si>
+  <si>
+    <t>17866651</t>
+  </si>
+  <si>
+    <t>17866652</t>
+  </si>
+  <si>
+    <t>17866653</t>
+  </si>
+  <si>
+    <t>17866654</t>
+  </si>
+  <si>
+    <t>17866655</t>
+  </si>
+  <si>
+    <t>17866656</t>
+  </si>
+  <si>
+    <t>17866657</t>
+  </si>
+  <si>
+    <t>17866658</t>
+  </si>
+  <si>
+    <t>17866659</t>
+  </si>
+  <si>
+    <t>17866660</t>
+  </si>
+  <si>
+    <t>17866661</t>
+  </si>
+  <si>
+    <t>17866662</t>
+  </si>
+  <si>
+    <t>17866663</t>
+  </si>
+  <si>
+    <t>17866664</t>
+  </si>
+  <si>
+    <t>17866665</t>
+  </si>
+  <si>
+    <t>17866666</t>
+  </si>
+  <si>
+    <t>17866667</t>
+  </si>
+  <si>
+    <t>17866668</t>
+  </si>
+  <si>
+    <t>17866669</t>
+  </si>
+  <si>
+    <t>17866670</t>
+  </si>
+  <si>
+    <t>17866671</t>
+  </si>
+  <si>
+    <t>17866672</t>
+  </si>
+  <si>
+    <t>17866673</t>
+  </si>
+  <si>
+    <t>17866674</t>
+  </si>
+  <si>
+    <t>17866675</t>
+  </si>
+  <si>
+    <t>17866676</t>
+  </si>
+  <si>
+    <t>17866677</t>
+  </si>
+  <si>
+    <t>17866678</t>
+  </si>
+  <si>
+    <t>17866679</t>
+  </si>
+  <si>
+    <t>17866680</t>
+  </si>
+  <si>
+    <t>17866681</t>
+  </si>
+  <si>
+    <t>17866682</t>
+  </si>
+  <si>
+    <t>17866684</t>
   </si>
 </sst>
 </file>
@@ -117,9 +436,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,25 +739,2276 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101">
+        <v>17866683</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
+        <v>17866683</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
@@ -1672,7 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="remaining" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Ban gai Customers" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="unAuth" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="remaining" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Ban gai Customers" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="133">
   <si>
     <t>TC</t>
   </si>
@@ -401,6 +403,27 @@
   </si>
   <si>
     <t>17866684</t>
+  </si>
+  <si>
+    <t>17866692</t>
+  </si>
+  <si>
+    <t>17866693</t>
+  </si>
+  <si>
+    <t>17866694</t>
+  </si>
+  <si>
+    <t>17866695</t>
+  </si>
+  <si>
+    <t>17866696</t>
+  </si>
+  <si>
+    <t>17866697</t>
+  </si>
+  <si>
+    <t>17866698</t>
   </si>
 </sst>
 </file>
@@ -720,10 +743,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,91 +869,113 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17705229</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
+      <c r="A3" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B3" s="1">
+        <v>17705230</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6018</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
+      <c r="A4" s="1">
+        <v>118463</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17705231</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
+      <c r="A5" s="1">
+        <v>118464</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17705232</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" s="1">
+        <v>118465</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17705233</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1011</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
+      <c r="A7" s="1">
+        <v>118466</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17705234</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6025</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="1">
+        <v>118468</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17705235</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6004</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
+      <c r="A9" s="1">
+        <v>118469</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17705242</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>118469</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17705237</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>118471</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17705238</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -832,12 +983,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,11 +2104,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
@@ -3008,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
@@ -4241,140 +4518,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>118463</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17705229</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>118463</v>
-      </c>
-      <c r="B3" s="1">
-        <v>17705230</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>118463</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17705231</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>118464</v>
-      </c>
-      <c r="B5" s="1">
-        <v>17705232</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>118465</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17705233</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>118466</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17705234</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>118468</v>
-      </c>
-      <c r="B8" s="1">
-        <v>17705235</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>118469</v>
-      </c>
-      <c r="B9" s="1">
-        <v>17705242</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>118469</v>
-      </c>
-      <c r="B10" s="1">
-        <v>17705237</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>118471</v>
-      </c>
-      <c r="B11" s="1">
-        <v>17705238</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1033</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="129">
   <si>
     <t>TC</t>
   </si>
@@ -405,31 +405,20 @@
     <t>17866684</t>
   </si>
   <si>
-    <t>17866692</t>
-  </si>
-  <si>
-    <t>17866693</t>
-  </si>
-  <si>
-    <t>17866694</t>
-  </si>
-  <si>
-    <t>17866695</t>
-  </si>
-  <si>
-    <t>17866696</t>
-  </si>
-  <si>
-    <t>17866697</t>
-  </si>
-  <si>
-    <t>17866698</t>
+    <t>118463</t>
+  </si>
+  <si>
+    <t>17866729</t>
+  </si>
+  <si>
+    <t>1010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,15 +732,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,81 +754,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3218,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -13,19 +13,20 @@
   </bookViews>
   <sheets>
     <sheet name="unAuth" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="remaining" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
-    <sheet name="Ban gai Customers" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet0" sheetId="1" r:id="rId7"/>
+    <sheet name="Txn of Regression UAT2" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="remaining" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
+    <sheet name="Ban gai Customers" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="158">
   <si>
     <t>TC</t>
   </si>
@@ -405,13 +406,100 @@
     <t>17866684</t>
   </si>
   <si>
+    <t>17866751</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>17866752</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>17866753</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>17866754</t>
+  </si>
+  <si>
+    <t>17866755</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>17866756</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>17866757</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>17866759</t>
+  </si>
+  <si>
+    <t>Royal Profit</t>
+  </si>
+  <si>
+    <t>AFSNAPKSVGAC</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>AlfAsanRemCurAC</t>
+  </si>
+  <si>
+    <t>CA AKK</t>
+  </si>
+  <si>
+    <t>FreeLancerCurAc</t>
+  </si>
+  <si>
+    <t>CD BBA</t>
+  </si>
+  <si>
+    <t>Accout Type Name</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
     <t>118463</t>
   </si>
   <si>
-    <t>17866729</t>
+    <t>17868029</t>
   </si>
   <si>
     <t>1010</t>
+  </si>
+  <si>
+    <t>BALQuickFin</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17868030</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>CD F.E.25</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -448,10 +536,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,18 +821,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection activeCell="E17" sqref="A2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,16 +844,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -771,6 +891,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -906,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -1020,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1032,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C99"/>
   <sheetViews>
@@ -2027,7 +2288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C109"/>
   <sheetViews>
@@ -3208,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>

--- a/Data/UnAuth_Customers.xlsx
+++ b/Data/UnAuth_Customers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Data\"/>
     </mc:Choice>
@@ -21,12 +21,12 @@
     <sheet name="Ban gai Customers" sheetId="3" r:id="rId7"/>
     <sheet name="Sheet0" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="201">
   <si>
     <t>TC</t>
   </si>
@@ -475,38 +475,166 @@
     <t>Customer Type</t>
   </si>
   <si>
-    <t>118463</t>
-  </si>
-  <si>
-    <t>17868029</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>BALQuickFin</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>17868030</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>CD F.E.25</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>Account Numbers</t>
+  </si>
+  <si>
+    <t>17899026</t>
+  </si>
+  <si>
+    <t>17899027</t>
+  </si>
+  <si>
+    <t>17899028</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>AlfalahKifayat</t>
+  </si>
+  <si>
+    <t>17899029</t>
+  </si>
+  <si>
+    <t>17899031</t>
+  </si>
+  <si>
+    <t>17899032</t>
+  </si>
+  <si>
+    <t>17899033</t>
+  </si>
+  <si>
+    <t>17899034</t>
+  </si>
+  <si>
+    <t>17899035</t>
+  </si>
+  <si>
+    <t>17899036</t>
+  </si>
+  <si>
+    <t>17899037</t>
+  </si>
+  <si>
+    <t>17899038</t>
+  </si>
+  <si>
+    <t>17899039</t>
+  </si>
+  <si>
+    <t>17899041</t>
+  </si>
+  <si>
+    <t>17899043</t>
+  </si>
+  <si>
+    <t>17899044</t>
+  </si>
+  <si>
+    <t>17899045</t>
+  </si>
+  <si>
+    <t>17899046</t>
+  </si>
+  <si>
+    <t>17899047</t>
+  </si>
+  <si>
+    <t>17899049</t>
+  </si>
+  <si>
+    <t>17899050</t>
+  </si>
+  <si>
+    <t>17899051</t>
+  </si>
+  <si>
+    <t>17899053</t>
+  </si>
+  <si>
+    <t>17899054</t>
+  </si>
+  <si>
+    <t>17899055</t>
+  </si>
+  <si>
+    <t>17899056</t>
+  </si>
+  <si>
+    <t>17899057</t>
+  </si>
+  <si>
+    <t>17899058</t>
+  </si>
+  <si>
+    <t>17899059</t>
+  </si>
+  <si>
+    <t>17899060</t>
+  </si>
+  <si>
+    <t>17899061</t>
+  </si>
+  <si>
+    <t>17899062</t>
+  </si>
+  <si>
+    <t>17899063</t>
+  </si>
+  <si>
+    <t>17899064</t>
+  </si>
+  <si>
+    <t>17899065</t>
+  </si>
+  <si>
+    <t>17899067</t>
+  </si>
+  <si>
+    <t>17899068</t>
+  </si>
+  <si>
+    <t>17899069</t>
+  </si>
+  <si>
+    <t>17899070</t>
+  </si>
+  <si>
+    <t>17899071</t>
+  </si>
+  <si>
+    <t>17899072</t>
+  </si>
+  <si>
+    <t>17899073</t>
+  </si>
+  <si>
+    <t>17899074</t>
+  </si>
+  <si>
+    <t>Sole Proprietorship</t>
+  </si>
+  <si>
+    <t>Staff- BAFL</t>
+  </si>
+  <si>
+    <t>Individuals - Landlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Individuals - Others</t>
+  </si>
+  <si>
+    <t>Individuals - Salaried</t>
+  </si>
+  <si>
+    <t>Individuals- Business / Self-Employ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,20 +949,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="A2:E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,43 +979,761 @@
       <c r="E1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>17899025</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -900,7 +1747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,7 +4326,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
